--- a/data/pca/factorExposure/factorExposure_2013-06-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-06-05.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001845010696523439</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001776238455276494</v>
+      </c>
+      <c r="C2">
+        <v>-0.03162365778828491</v>
+      </c>
+      <c r="D2">
+        <v>0.004221555047480792</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001485162814989036</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.005942377712284765</v>
+      </c>
+      <c r="C4">
+        <v>-0.08413945525912457</v>
+      </c>
+      <c r="D4">
+        <v>0.08157986987569035</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0005240483214032477</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01312269362010399</v>
+      </c>
+      <c r="C6">
+        <v>-0.107754100532252</v>
+      </c>
+      <c r="D6">
+        <v>0.0350822873162587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001767036259970996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004890200645584755</v>
+      </c>
+      <c r="C7">
+        <v>-0.05105778207186935</v>
+      </c>
+      <c r="D7">
+        <v>0.03707979748702429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.002212504839904426</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005688985244759188</v>
+      </c>
+      <c r="C8">
+        <v>-0.03707686707833568</v>
+      </c>
+      <c r="D8">
+        <v>0.04116688048080312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.005312223109242486</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.003953568664539746</v>
+      </c>
+      <c r="C9">
+        <v>-0.0687503157279368</v>
+      </c>
+      <c r="D9">
+        <v>0.07071256209813015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.005699885207200939</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005725554934098624</v>
+      </c>
+      <c r="C10">
+        <v>-0.07584767558154053</v>
+      </c>
+      <c r="D10">
+        <v>-0.2097222228474264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.005339083072689808</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.004910430684138429</v>
+      </c>
+      <c r="C11">
+        <v>-0.07810092817259547</v>
+      </c>
+      <c r="D11">
+        <v>0.06560509547263479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0009436728637701132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003665529747514688</v>
+      </c>
+      <c r="C12">
+        <v>-0.06278718850015361</v>
+      </c>
+      <c r="D12">
+        <v>0.04732542488639432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003849971800309467</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.00858112508674711</v>
+      </c>
+      <c r="C13">
+        <v>-0.06925609290713572</v>
+      </c>
+      <c r="D13">
+        <v>0.07041481804508817</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.003688591913537727</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001566371027150804</v>
+      </c>
+      <c r="C14">
+        <v>-0.045705932976599</v>
+      </c>
+      <c r="D14">
+        <v>0.0139870365223356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.003204832379807356</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005614752313543447</v>
+      </c>
+      <c r="C15">
+        <v>-0.03775869856193852</v>
+      </c>
+      <c r="D15">
+        <v>0.04109483355753539</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.002909710676043865</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004752692878566511</v>
+      </c>
+      <c r="C16">
+        <v>-0.0643848076421835</v>
+      </c>
+      <c r="D16">
+        <v>0.05086801732112242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0008941669982201287</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008893000922562261</v>
+      </c>
+      <c r="C20">
+        <v>-0.06456486387738508</v>
+      </c>
+      <c r="D20">
+        <v>0.05723131413490454</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.004581277605081484</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009882644394109309</v>
+      </c>
+      <c r="C21">
+        <v>-0.0235545698819545</v>
+      </c>
+      <c r="D21">
+        <v>0.03795737575384565</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01613293071762151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.007018845621667134</v>
+      </c>
+      <c r="C22">
+        <v>-0.09003769239682381</v>
+      </c>
+      <c r="D22">
+        <v>0.09936942403932045</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01638602607257211</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006813008991467396</v>
+      </c>
+      <c r="C23">
+        <v>-0.09113405164269928</v>
+      </c>
+      <c r="D23">
+        <v>0.09994566926188077</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.003954336532550864</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004496347012696576</v>
+      </c>
+      <c r="C24">
+        <v>-0.07260581788141422</v>
+      </c>
+      <c r="D24">
+        <v>0.05994894487693724</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.005631436969635705</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002624716541817168</v>
+      </c>
+      <c r="C25">
+        <v>-0.0766419806651579</v>
+      </c>
+      <c r="D25">
+        <v>0.0656454327178983</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.006193243758941038</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003510617600944634</v>
+      </c>
+      <c r="C26">
+        <v>-0.04081132127541855</v>
+      </c>
+      <c r="D26">
+        <v>0.02892947071131026</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004859048935813886</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0004687634864478585</v>
+      </c>
+      <c r="C28">
+        <v>-0.1269676630700095</v>
+      </c>
+      <c r="D28">
+        <v>-0.3077261656055575</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001790766100830491</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003223010473210517</v>
+      </c>
+      <c r="C29">
+        <v>-0.04780882022352327</v>
+      </c>
+      <c r="D29">
+        <v>0.01667107330682192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.005377153593597098</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008555140701041943</v>
+      </c>
+      <c r="C30">
+        <v>-0.1370379380865166</v>
+      </c>
+      <c r="D30">
+        <v>0.1068271245256192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0002917079053440305</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006071935584387633</v>
+      </c>
+      <c r="C31">
+        <v>-0.04496126723679034</v>
+      </c>
+      <c r="D31">
+        <v>0.03662168898637556</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.001994709043606873</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003889283808219535</v>
+      </c>
+      <c r="C32">
+        <v>-0.03976606056830641</v>
+      </c>
+      <c r="D32">
+        <v>0.01435885825550749</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002989678589878379</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007540533547661629</v>
+      </c>
+      <c r="C33">
+        <v>-0.08135862597806218</v>
+      </c>
+      <c r="D33">
+        <v>0.07669981545375421</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.005339827443641658</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003570855905656901</v>
+      </c>
+      <c r="C34">
+        <v>-0.05638486293782397</v>
+      </c>
+      <c r="D34">
+        <v>0.04558881253699677</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.004111726225142351</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.00478434306663094</v>
+      </c>
+      <c r="C35">
+        <v>-0.0381446861481279</v>
+      </c>
+      <c r="D35">
+        <v>0.0126623224256261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004614365492612884</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001467558380445657</v>
+      </c>
+      <c r="C36">
+        <v>-0.02332258961928723</v>
+      </c>
+      <c r="D36">
+        <v>0.02376200583819868</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002551232800676107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009518121068503412</v>
+      </c>
+      <c r="C38">
+        <v>-0.03434936919209237</v>
+      </c>
+      <c r="D38">
+        <v>0.03073327355502154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01362561846129471</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001133462551079309</v>
+      </c>
+      <c r="C39">
+        <v>-0.1151978210784663</v>
+      </c>
+      <c r="D39">
+        <v>0.08084027286398268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.007899232475436165</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002189547074168703</v>
+      </c>
+      <c r="C40">
+        <v>-0.08540654079162008</v>
+      </c>
+      <c r="D40">
+        <v>0.02605431479791302</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>7.439266326864208e-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007286819496690188</v>
+      </c>
+      <c r="C41">
+        <v>-0.03882363032004629</v>
+      </c>
+      <c r="D41">
+        <v>0.03771763292003082</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002822258925564743</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003026285698093555</v>
+      </c>
+      <c r="C43">
+        <v>-0.05053313060943457</v>
+      </c>
+      <c r="D43">
+        <v>0.02902446318132323</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.005172412419239518</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003439078753831066</v>
+      </c>
+      <c r="C44">
+        <v>-0.1069534594259881</v>
+      </c>
+      <c r="D44">
+        <v>0.08418591428909032</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.002544855283979771</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002417088598848347</v>
+      </c>
+      <c r="C46">
+        <v>-0.03448526655639186</v>
+      </c>
+      <c r="D46">
+        <v>0.03516072888154311</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.001381102612594615</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002886227777015147</v>
+      </c>
+      <c r="C47">
+        <v>-0.03836008743920547</v>
+      </c>
+      <c r="D47">
+        <v>0.02961203526791654</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003820074514194412</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006463086027623559</v>
+      </c>
+      <c r="C48">
+        <v>-0.029337756646974</v>
+      </c>
+      <c r="D48">
+        <v>0.03212954867930651</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01477366156670771</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01364835759672448</v>
+      </c>
+      <c r="C49">
+        <v>-0.1709888119663473</v>
+      </c>
+      <c r="D49">
+        <v>0.03320315530672707</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0005330352190118078</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003561552813213258</v>
+      </c>
+      <c r="C50">
+        <v>-0.04106604251831789</v>
+      </c>
+      <c r="D50">
+        <v>0.04050347927160075</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001108137077401499</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004022360378191561</v>
+      </c>
+      <c r="C51">
+        <v>-0.01929338173624015</v>
+      </c>
+      <c r="D51">
+        <v>0.03217686281337878</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.001323818569883837</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02010949835344726</v>
+      </c>
+      <c r="C53">
+        <v>-0.1652698553532064</v>
+      </c>
+      <c r="D53">
+        <v>0.05253439190349613</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.0006327786839729886</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008272216169393165</v>
+      </c>
+      <c r="C54">
+        <v>-0.05576182395871024</v>
+      </c>
+      <c r="D54">
+        <v>0.04338607517401959</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004510620808462511</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009302403545260426</v>
+      </c>
+      <c r="C55">
+        <v>-0.1052146956314713</v>
+      </c>
+      <c r="D55">
+        <v>0.05348477191035251</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002978558645241364</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.0193953929859711</v>
+      </c>
+      <c r="C56">
+        <v>-0.172152182663367</v>
+      </c>
+      <c r="D56">
+        <v>0.050668261271074</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.008127692111535613</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01923497860863537</v>
+      </c>
+      <c r="C58">
+        <v>-0.09974204204638122</v>
+      </c>
+      <c r="D58">
+        <v>0.07933666674529566</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.007057681391457033</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009333240953011118</v>
+      </c>
+      <c r="C59">
+        <v>-0.1693598434375213</v>
+      </c>
+      <c r="D59">
+        <v>-0.2772170796427165</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.006535233121663767</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02308160959570563</v>
+      </c>
+      <c r="C60">
+        <v>-0.221099739867848</v>
+      </c>
+      <c r="D60">
+        <v>0.02948581693306363</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01579108981716667</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002144706887557512</v>
+      </c>
+      <c r="C61">
+        <v>-0.09483323419046533</v>
+      </c>
+      <c r="D61">
+        <v>0.06193988644782299</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1840682918453238</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1435029079233224</v>
+      </c>
+      <c r="C62">
+        <v>-0.07488458817686595</v>
+      </c>
+      <c r="D62">
+        <v>0.05288454186528848</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.002357114495910733</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006458035898626474</v>
+      </c>
+      <c r="C63">
+        <v>-0.0594397527240634</v>
+      </c>
+      <c r="D63">
+        <v>0.02627198047061137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.007790161002556252</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01449130204233445</v>
+      </c>
+      <c r="C64">
+        <v>-0.1016356925587801</v>
+      </c>
+      <c r="D64">
+        <v>0.06197436676113108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.0002140473105854978</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01688087621392921</v>
+      </c>
+      <c r="C65">
+        <v>-0.1133154589287027</v>
+      </c>
+      <c r="D65">
+        <v>0.03086489169428924</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.009983599694311349</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01191473514261593</v>
+      </c>
+      <c r="C66">
+        <v>-0.1538574641792023</v>
+      </c>
+      <c r="D66">
+        <v>0.1177537299995459</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002586675708398341</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01554139527927839</v>
+      </c>
+      <c r="C67">
+        <v>-0.06354062944070879</v>
+      </c>
+      <c r="D67">
+        <v>0.04044302968318098</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.007621466368402832</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.00150289268278012</v>
+      </c>
+      <c r="C68">
+        <v>-0.1115585598665301</v>
+      </c>
+      <c r="D68">
+        <v>-0.2626954818169599</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.003491404735668386</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.00564012643641206</v>
+      </c>
+      <c r="C69">
+        <v>-0.04509782551415301</v>
+      </c>
+      <c r="D69">
+        <v>0.04424406961344259</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001688142296091945</v>
+      </c>
+      <c r="C70">
+        <v>-0.001990997885358824</v>
+      </c>
+      <c r="D70">
+        <v>0.002663731246708614</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.00311252024036178</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006320876009780018</v>
+      </c>
+      <c r="C71">
+        <v>-0.1133632945603577</v>
+      </c>
+      <c r="D71">
+        <v>-0.2822922819952551</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.008727725308951866</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01496823910954249</v>
+      </c>
+      <c r="C72">
+        <v>-0.1504486493817461</v>
+      </c>
+      <c r="D72">
+        <v>0.02744983977676034</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.0136691144006426</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02960223558821112</v>
+      </c>
+      <c r="C73">
+        <v>-0.2820783007621968</v>
+      </c>
+      <c r="D73">
+        <v>0.05291273665025439</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004368090961676165</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.00158885322662293</v>
+      </c>
+      <c r="C74">
+        <v>-0.1029248353966754</v>
+      </c>
+      <c r="D74">
+        <v>0.0432941077282228</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.007001970615732767</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01053186479445357</v>
+      </c>
+      <c r="C75">
+        <v>-0.131219924217663</v>
+      </c>
+      <c r="D75">
+        <v>0.04163251809829227</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01173839119515927</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.0211250716332679</v>
+      </c>
+      <c r="C76">
+        <v>-0.1445300865232264</v>
+      </c>
+      <c r="D76">
+        <v>0.07393777519599412</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.003306348973164502</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02380934629589984</v>
+      </c>
+      <c r="C77">
+        <v>-0.1330023230294475</v>
+      </c>
+      <c r="D77">
+        <v>0.06557396779000073</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0009033233858333567</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01387696702061844</v>
+      </c>
+      <c r="C78">
+        <v>-0.09113765332707599</v>
+      </c>
+      <c r="D78">
+        <v>0.06690435723765917</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02767501071356424</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03667296119454621</v>
+      </c>
+      <c r="C79">
+        <v>-0.1566389847408411</v>
+      </c>
+      <c r="D79">
+        <v>0.03541852614485462</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.005348667638302105</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01057204663403813</v>
+      </c>
+      <c r="C80">
+        <v>-0.04136029628560935</v>
+      </c>
+      <c r="D80">
+        <v>0.03501635021009618</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>4.02551969767035e-05</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01446170733024789</v>
+      </c>
+      <c r="C81">
+        <v>-0.1198255500197547</v>
+      </c>
+      <c r="D81">
+        <v>0.05756935882363157</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.006543828189430599</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01948073088452351</v>
+      </c>
+      <c r="C82">
+        <v>-0.1418686505730435</v>
+      </c>
+      <c r="D82">
+        <v>0.04738928864461836</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.006576833953249053</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009641765330642616</v>
+      </c>
+      <c r="C83">
+        <v>-0.05554032968749401</v>
+      </c>
+      <c r="D83">
+        <v>0.05163539148653293</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01320508370322508</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01165179752310814</v>
+      </c>
+      <c r="C84">
+        <v>-0.02969542304255481</v>
+      </c>
+      <c r="D84">
+        <v>0.001172644100232386</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01641832372635243</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02779357612076847</v>
+      </c>
+      <c r="C85">
+        <v>-0.1277292205312873</v>
+      </c>
+      <c r="D85">
+        <v>0.05424713935499875</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.003503114711443457</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005365968066985752</v>
+      </c>
+      <c r="C86">
+        <v>-0.04741718743322856</v>
+      </c>
+      <c r="D86">
+        <v>0.02593795119688554</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.007540545775306363</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.009851653532896682</v>
+      </c>
+      <c r="C87">
+        <v>-0.1273349303185026</v>
+      </c>
+      <c r="D87">
+        <v>0.08197734367780905</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01420218292292413</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.003018769563002687</v>
+      </c>
+      <c r="C88">
+        <v>-0.069291227240122</v>
+      </c>
+      <c r="D88">
+        <v>0.02076780898472562</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.0147551102739267</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001004197842864375</v>
+      </c>
+      <c r="C89">
+        <v>-0.1642831474553452</v>
+      </c>
+      <c r="D89">
+        <v>-0.3451363584485111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002664648346359395</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007287008880587796</v>
+      </c>
+      <c r="C90">
+        <v>-0.144066746737577</v>
+      </c>
+      <c r="D90">
+        <v>-0.3179827485712844</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.002156242798744923</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01016807974566749</v>
+      </c>
+      <c r="C91">
+        <v>-0.1030174947070103</v>
+      </c>
+      <c r="D91">
+        <v>0.02271484833908605</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01426819969390064</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0003973181716991211</v>
+      </c>
+      <c r="C92">
+        <v>-0.1532605469157385</v>
+      </c>
+      <c r="D92">
+        <v>-0.3277414970323331</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001626463912056314</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005275784205108152</v>
+      </c>
+      <c r="C93">
+        <v>-0.1254307086700415</v>
+      </c>
+      <c r="D93">
+        <v>-0.3087661249329042</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.00302697268779808</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02191165230311862</v>
+      </c>
+      <c r="C94">
+        <v>-0.1576685159642731</v>
+      </c>
+      <c r="D94">
+        <v>0.03577149077224262</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.005611603633142286</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01585381878612584</v>
+      </c>
+      <c r="C95">
+        <v>-0.1224408281541339</v>
+      </c>
+      <c r="D95">
+        <v>0.06952824867623503</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.004093747807554072</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03468925879585432</v>
+      </c>
+      <c r="C97">
+        <v>-0.174784790140532</v>
+      </c>
+      <c r="D97">
+        <v>0.04157759675483103</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.00607720438156694</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03551402322218191</v>
+      </c>
+      <c r="C98">
+        <v>-0.2580888495283175</v>
+      </c>
+      <c r="D98">
+        <v>0.04185575579521707</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9804911496537158</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9828628387347841</v>
+      </c>
+      <c r="C99">
+        <v>0.1081449748004942</v>
+      </c>
+      <c r="D99">
+        <v>-0.0327103322186825</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001750065205602299</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003273790261755484</v>
+      </c>
+      <c r="C101">
+        <v>-0.04795661243733886</v>
+      </c>
+      <c r="D101">
+        <v>0.01699803171541192</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
